--- a/论文用图表/表4.6：预测涵盖性检验.xlsx
+++ b/论文用图表/表4.6：预测涵盖性检验.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yyhan\Desktop\毕业论文\中国市场\论文用图表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{536D1A8F-7E54-4861-A64A-7AA028C54301}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D4426C-2BD9-470D-A779-83C64894FCFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="22">
   <si>
     <t>HA</t>
   </si>
@@ -51,6 +51,59 @@
   </si>
   <si>
     <t>HA+Kitchen Sink</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KitchenSink</t>
+  </si>
+  <si>
+    <t>ridge</t>
+  </si>
+  <si>
+    <t>lasso</t>
+  </si>
+  <si>
+    <t>elastic net</t>
+  </si>
+  <si>
+    <t>lars</t>
+  </si>
+  <si>
+    <t>OMP</t>
+  </si>
+  <si>
+    <t>FC</t>
+  </si>
+  <si>
+    <t>shrinkage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HA+KitchenSink</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HA+FC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HA+ridge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HA+lasso</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HA+elastic net</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HA+lars</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HA+OMP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -85,7 +138,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -113,11 +166,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -133,6 +206,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -415,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="F11:M18"/>
+  <dimension ref="C11:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -574,7 +657,7 @@
         <v>9.4110755937064604E-3</v>
       </c>
     </row>
-    <row r="17" spans="6:13" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:14" x14ac:dyDescent="0.4">
       <c r="F17" s="1" t="s">
         <v>6</v>
       </c>
@@ -598,7 +681,7 @@
         <v>9.5135040729628695E-2</v>
       </c>
     </row>
-    <row r="18" spans="6:13" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.4">
       <c r="F18" s="3" t="s">
         <v>0</v>
       </c>
@@ -621,6 +704,506 @@
         <v>1.28880340297539E-2</v>
       </c>
       <c r="M18" s="4"/>
+    </row>
+    <row r="19" spans="3:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M20" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="N20" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="E21" s="8"/>
+      <c r="F21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2">
+        <v>0.35525406217344602</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0.35331995087047302</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0.34887368803096602</v>
+      </c>
+      <c r="K21" s="2">
+        <v>0.12313144022412</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0.51520009343942696</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0.41368165514224697</v>
+      </c>
+      <c r="N21" s="2">
+        <v>5.48125841986195E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="E22" s="8"/>
+      <c r="F22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G22" s="2">
+        <v>3.3199718408961601E-3</v>
+      </c>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2">
+        <v>0.59850449482187695</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0.61835008518318502</v>
+      </c>
+      <c r="K22" s="2">
+        <v>5.4862070813096797E-2</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0.22327359054066601</v>
+      </c>
+      <c r="M22" s="2">
+        <v>0.54486820790659896</v>
+      </c>
+      <c r="N22" s="2">
+        <v>2.9805703182574601E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="E23" s="8"/>
+      <c r="F23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1.60956360293729E-3</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0.12078164637262399</v>
+      </c>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2">
+        <v>0.58492240241377602</v>
+      </c>
+      <c r="K23" s="2">
+        <v>3.2836220093385798E-2</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0.143509732315862</v>
+      </c>
+      <c r="M23" s="2">
+        <v>0.321857533640868</v>
+      </c>
+      <c r="N23" s="2">
+        <v>2.1268855837651E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="E24" s="8"/>
+      <c r="F24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1.45233048764692E-3</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0.112135008855458</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0.26150836218517798</v>
+      </c>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2">
+        <v>3.0820394491126699E-2</v>
+      </c>
+      <c r="L24" s="2">
+        <v>0.13482385374653599</v>
+      </c>
+      <c r="M24" s="2">
+        <v>0.29747196743634602</v>
+      </c>
+      <c r="N24" s="2">
+        <v>2.0897156862423199E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="E25" s="8"/>
+      <c r="F25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" s="2">
+        <v>3.5184571577282402E-3</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0.364161555444517</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0.65889799853944098</v>
+      </c>
+      <c r="J25" s="2">
+        <v>0.67589440817513702</v>
+      </c>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2">
+        <v>0.57573890308326003</v>
+      </c>
+      <c r="M25" s="2">
+        <v>0.81776266406244502</v>
+      </c>
+      <c r="N25" s="2">
+        <v>0.11220924466544099</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="E26" s="8"/>
+      <c r="F26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="2">
+        <v>1.3951514676019401E-3</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0.18802297647600499</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0.328183604359993</v>
+      </c>
+      <c r="J26" s="2">
+        <v>0.33357503108069703</v>
+      </c>
+      <c r="K26" s="2">
+        <v>5.7104844729928099E-2</v>
+      </c>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2">
+        <v>0.379374590012651</v>
+      </c>
+      <c r="N26" s="2">
+        <v>1.92905810737167E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="E27" s="8"/>
+      <c r="F27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="2">
+        <v>1.3891222256109299E-3</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0.146935385053205</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0.48425528647481197</v>
+      </c>
+      <c r="J27" s="2">
+        <v>0.51181553482831799</v>
+      </c>
+      <c r="K27" s="2">
+        <v>2.1173308884561998E-2</v>
+      </c>
+      <c r="L27" s="2">
+        <v>0.206494465869867</v>
+      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2">
+        <v>2.12831911419087E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E28" s="8"/>
+      <c r="F28" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G28" s="10">
+        <v>6.8809852475920598E-3</v>
+      </c>
+      <c r="H28" s="10">
+        <v>0.29590290163105198</v>
+      </c>
+      <c r="I28" s="10">
+        <v>0.48555077497344201</v>
+      </c>
+      <c r="J28" s="10">
+        <v>0.502449685202771</v>
+      </c>
+      <c r="K28" s="10">
+        <v>0.456696596538816</v>
+      </c>
+      <c r="L28" s="10">
+        <v>0.38389453500882498</v>
+      </c>
+      <c r="M28" s="10">
+        <v>0.55178565307323102</v>
+      </c>
+      <c r="N28" s="10"/>
+    </row>
+    <row r="30" spans="3:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="F31" s="9"/>
+      <c r="G31" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K31" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L31" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M31" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="N31" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="F32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2">
+        <v>0.33377964736954102</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0.33804851687552401</v>
+      </c>
+      <c r="J32" s="2">
+        <v>0.33208071972388797</v>
+      </c>
+      <c r="K32" s="2">
+        <v>0.14846305003329799</v>
+      </c>
+      <c r="L32" s="2">
+        <v>0.597010679887781</v>
+      </c>
+      <c r="M32" s="2">
+        <v>0.47133982805192198</v>
+      </c>
+      <c r="N32" s="2">
+        <v>5.48125841986195E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="6:14" x14ac:dyDescent="0.4">
+      <c r="F33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" s="2">
+        <v>9.3293512406278299E-5</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2">
+        <v>0.677061745931551</v>
+      </c>
+      <c r="J33" s="2">
+        <v>0.70483791429340803</v>
+      </c>
+      <c r="K33" s="2">
+        <v>8.0110381143772599E-2</v>
+      </c>
+      <c r="L33" s="2">
+        <v>0.15162491511982701</v>
+      </c>
+      <c r="M33" s="2">
+        <v>0.72930915131972596</v>
+      </c>
+      <c r="N33" s="2">
+        <v>2.9805703182574798E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="6:14" x14ac:dyDescent="0.4">
+      <c r="F34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" s="2">
+        <v>2.2132913944039601E-5</v>
+      </c>
+      <c r="H34" s="2">
+        <v>3.9999610830164303E-2</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2">
+        <v>0.64493080621446897</v>
+      </c>
+      <c r="K34" s="2">
+        <v>4.7243357641704502E-2</v>
+      </c>
+      <c r="L34" s="2">
+        <v>5.9474897568207098E-2</v>
+      </c>
+      <c r="M34" s="2">
+        <v>0.40666464868736302</v>
+      </c>
+      <c r="N34" s="2">
+        <v>2.1268855837651E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="6:14" x14ac:dyDescent="0.4">
+      <c r="F35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" s="2">
+        <v>1.8053921913674299E-5</v>
+      </c>
+      <c r="H35" s="2">
+        <v>3.4699468882516099E-2</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0.144572881017902</v>
+      </c>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2">
+        <v>4.3643661113299301E-2</v>
+      </c>
+      <c r="L35" s="2">
+        <v>5.2681412049545302E-2</v>
+      </c>
+      <c r="M35" s="2">
+        <v>0.36616918532127002</v>
+      </c>
+      <c r="N35" s="2">
+        <v>2.0897156862423199E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="6:14" x14ac:dyDescent="0.4">
+      <c r="F36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="2">
+        <v>2.01324103878963E-5</v>
+      </c>
+      <c r="H36" s="2">
+        <v>9.6905807322180501E-2</v>
+      </c>
+      <c r="I36" s="2">
+        <v>0.36244040582716502</v>
+      </c>
+      <c r="J36" s="2">
+        <v>0.38834647307090098</v>
+      </c>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2">
+        <v>0.22787906411147699</v>
+      </c>
+      <c r="M36" s="2">
+        <v>0.581318648753821</v>
+      </c>
+      <c r="N36" s="2">
+        <v>0.11220924466544099</v>
+      </c>
+    </row>
+    <row r="37" spans="6:14" x14ac:dyDescent="0.4">
+      <c r="F37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="2">
+        <v>2.24341321147791E-5</v>
+      </c>
+      <c r="H37" s="2">
+        <v>0.101262642101346</v>
+      </c>
+      <c r="I37" s="2">
+        <v>0.26690023150409498</v>
+      </c>
+      <c r="J37" s="2">
+        <v>0.27414330421449001</v>
+      </c>
+      <c r="K37" s="2">
+        <v>9.1313174532327096E-2</v>
+      </c>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2">
+        <v>0.401122643474567</v>
+      </c>
+      <c r="N37" s="2">
+        <v>1.9290581073716801E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="6:14" x14ac:dyDescent="0.4">
+      <c r="F38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" s="2">
+        <v>1.3879776268210701E-5</v>
+      </c>
+      <c r="H38" s="2">
+        <v>3.0152275848694999E-2</v>
+      </c>
+      <c r="I38" s="2">
+        <v>0.330298382124319</v>
+      </c>
+      <c r="J38" s="2">
+        <v>0.36840675736763501</v>
+      </c>
+      <c r="K38" s="2">
+        <v>3.5256675207341603E-2</v>
+      </c>
+      <c r="L38" s="2">
+        <v>7.0803193840273199E-2</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2">
+        <v>2.12831911419087E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="6:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F39" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G39" s="10">
+        <v>4.5382181489417299E-5</v>
+      </c>
+      <c r="H39" s="10">
+        <v>7.05808100606857E-2</v>
+      </c>
+      <c r="I39" s="10">
+        <v>0.193419089794336</v>
+      </c>
+      <c r="J39" s="10">
+        <v>0.20940128637285799</v>
+      </c>
+      <c r="K39" s="10">
+        <v>0.253984868044487</v>
+      </c>
+      <c r="L39" s="10">
+        <v>0.10287324109674501</v>
+      </c>
+      <c r="M39" s="10">
+        <v>0.258808797718591</v>
+      </c>
+      <c r="N39" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
